--- a/Crawling/crawling_data/blog/blog_20220324-173809.xlsx
+++ b/Crawling/crawling_data/blog/blog_20220324-173809.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Wantreez\Crawling\crawling_data\blog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006C0D43-0222-42F4-A74E-BEB4F1D4672A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -319,12 +325,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -332,7 +338,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -342,6 +348,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,16 +404,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,7 +463,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,9 +495,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,6 +547,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -683,14 +740,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -736,7 +795,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -759,7 +818,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -782,7 +841,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -805,7 +864,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -828,7 +887,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -851,7 +910,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -874,7 +933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -897,7 +956,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -920,7 +979,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -943,7 +1002,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -966,7 +1025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -989,7 +1048,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1012,7 +1071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1035,7 +1094,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1117,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1081,7 +1140,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1104,7 +1163,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1127,7 +1186,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1150,7 +1209,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1173,7 +1232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1196,7 +1255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1219,7 +1278,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1242,7 +1301,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1265,7 +1324,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1288,7 +1347,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1311,7 +1370,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1334,7 +1393,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1357,7 +1416,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1380,7 +1439,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1388,7 +1447,7 @@
         <v>67</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1403,7 +1462,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1411,7 +1470,7 @@
         <v>68</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1427,39 +1486,41 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
-    <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="G11" r:id="rId10"/>
-    <hyperlink ref="G12" r:id="rId11"/>
-    <hyperlink ref="G13" r:id="rId12"/>
-    <hyperlink ref="G14" r:id="rId13"/>
-    <hyperlink ref="G15" r:id="rId14"/>
-    <hyperlink ref="G16" r:id="rId15"/>
-    <hyperlink ref="G17" r:id="rId16"/>
-    <hyperlink ref="G18" r:id="rId17"/>
-    <hyperlink ref="G19" r:id="rId18"/>
-    <hyperlink ref="G20" r:id="rId19"/>
-    <hyperlink ref="G21" r:id="rId20"/>
-    <hyperlink ref="G22" r:id="rId21"/>
-    <hyperlink ref="G23" r:id="rId22"/>
-    <hyperlink ref="G24" r:id="rId23"/>
-    <hyperlink ref="G25" r:id="rId24"/>
-    <hyperlink ref="G26" r:id="rId25"/>
-    <hyperlink ref="G27" r:id="rId26"/>
-    <hyperlink ref="G28" r:id="rId27"/>
-    <hyperlink ref="G29" r:id="rId28"/>
-    <hyperlink ref="G30" r:id="rId29"/>
-    <hyperlink ref="G31" r:id="rId30"/>
-    <hyperlink ref="G32" r:id="rId31"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>